--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T12:05:31+00:00</t>
+    <t>2025-10-15T14:23:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:23:03+00:00</t>
+    <t>2025-10-15T15:54:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:54:27+00:00</t>
+    <t>2025-10-15T16:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T16:03:41+00:00</t>
+    <t>2025-10-15T17:01:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T17:01:16+00:00</t>
+    <t>2025-10-15T17:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T17:40:06+00:00</t>
+    <t>2025-10-15T18:08:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:08:27+00:00</t>
+    <t>2025-10-15T18:32:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:32:50+00:00</t>
+    <t>2025-10-15T18:40:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:40:48+00:00</t>
+    <t>2025-10-16T02:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T02:41:49+00:00</t>
+    <t>2025-10-16T07:04:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1556,7 +1556,7 @@
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:code}
+    <t xml:space="preserve">value:code}
 </t>
   </si>
   <si>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T07:04:25+00:00</t>
+    <t>2025-10-16T07:32:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T07:32:50+00:00</t>
+    <t>2025-10-16T10:13:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T10:13:43+00:00</t>
+    <t>2025-10-16T12:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T12:46:03+00:00</t>
+    <t>2025-10-18T06:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T02:11:18+00:00</t>
+    <t>2025-10-22T06:37:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T06:37:55+00:00</t>
+    <t>2025-10-22T07:39:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Road Safety Observation - Blood Pressure</t>
+    <t>RS Observation - Blood Pressure</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T07:39:41+00:00</t>
+    <t>2025-10-24T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>RS Observation - Blood Pressure</t>
+    <t>Road Safety Observation - Blood Pressure</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T06:46:00+00:00</t>
+    <t>2025-10-24T16:06:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T16:06:58+00:00</t>
+    <t>2025-10-25T04:52:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-25T04:52:41+00:00</t>
+    <t>2025-10-26T07:34:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Road Safety Observation - Blood Pressure</t>
+    <t>RS Observation - Blood Pressure</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-26T07:34:36+00:00</t>
+    <t>2025-10-27T01:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T01:54:31+00:00</t>
+    <t>2025-10-27T01:56:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$84</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2650" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3271" uniqueCount="519">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T01:56:04+00:00</t>
+    <t>2025-10-28T15:04:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -689,7 +689,234 @@
     <t>116680003 |Is a|</t>
   </si>
   <si>
-    <t>Observation.code.id</t>
+    <t>Observation.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-patient)
+</t>
+  </si>
+  <si>
+    <t>Who and/or what the observation is about</t>
+  </si>
+  <si>
+    <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
+  </si>
+  <si>
+    <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.</t>
+  </si>
+  <si>
+    <t>Observations have no value if you don't know who or what they're about.</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>participation[typeCode=RTGT]</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>Observation.focus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Resource|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>What the observation is about, when it is not about the subject of record</t>
+  </si>
+  <si>
+    <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
+  </si>
+  <si>
+    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/R4/extension-observation-focuscode.html).</t>
+  </si>
+  <si>
+    <t>participation[typeCode=SBJ]</t>
+  </si>
+  <si>
+    <t>Observation.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Context
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-encounter)
+</t>
+  </si>
+  <si>
+    <t>Healthcare event during which this observation is made</t>
+  </si>
+  <si>
+    <t>The healthcare event  (e.g. a patient and healthcare provider interaction) during which this observation is made.</t>
+  </si>
+  <si>
+    <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).</t>
+  </si>
+  <si>
+    <t>For some observations it may be important to know the link between an observation and a particular encounter.</t>
+  </si>
+  <si>
+    <t>Event.context</t>
+  </si>
+  <si>
+    <t>PV1</t>
+  </si>
+  <si>
+    <t>inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>Observation.effective[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occurrence
+</t>
+  </si>
+  <si>
+    <t>dateTime
+PeriodTiminginstant</t>
+  </si>
+  <si>
+    <t>Clinically relevant time/time-period for observation</t>
+  </si>
+  <si>
+    <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>
+  </si>
+  <si>
+    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/R4/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
+  </si>
+  <si>
+    <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>OBX-14, and/or OBX-19 after v2.4  (depends on who observation made)</t>
+  </si>
+  <si>
+    <t>effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>Observation.issued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>Date/Time this version was made available</t>
+  </si>
+  <si>
+    <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
+  </si>
+  <si>
+    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/R4/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
+  </si>
+  <si>
+    <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
+  </si>
+  <si>
+    <t>participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>Observation.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|CareTeam|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Who is responsible for the observation</t>
+  </si>
+  <si>
+    <t>Who was responsible for asserting the observed value as "true".</t>
+  </si>
+  <si>
+    <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
+  </si>
+  <si>
+    <t>Event.performer.actor</t>
+  </si>
+  <si>
+    <t>OBX.15 / (Practitioner)  OBX-16,  PRT-5:PRT-4='RO' /  (Device)  OBX-18 , PRT-10:PRT-4='EQUIP' / (Organization)  OBX-23,  PRT-8:PRT-4='PO'</t>
+  </si>
+  <si>
+    <t>participation[typeCode=PRF]</t>
+  </si>
+  <si>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>Observation.value[x]</t>
+  </si>
+  <si>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
+  </si>
+  <si>
+    <t>Actual result</t>
+  </si>
+  <si>
+    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
+  </si>
+  <si>
+    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
+  </si>
+  <si>
+    <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obs-7
+</t>
+  </si>
+  <si>
+    <t>&lt; 441742003 |Evaluation finding|</t>
+  </si>
+  <si>
+    <t>OBX.2, OBX.5, OBX.6</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>363714003 |Interprets|</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>Specify blood pressure components</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueCodeableConcept.id</t>
+  </si>
+  <si>
+    <t>Observation.value[x].id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -708,7 +935,10 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Observation.code.extension</t>
+    <t>Observation.value[x]:valueCodeableConcept.extension</t>
+  </si>
+  <si>
+    <t>Observation.value[x].extension</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -721,13 +951,13 @@
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Observation.code.coding</t>
+    <t>Observation.value[x]:valueCodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>Observation.value[x].coding</t>
   </si>
   <si>
     <t xml:space="preserve">Coding
@@ -755,137 +985,10 @@
     <t>union(., ./translation)</t>
   </si>
   <si>
-    <t>Observation.code.coding.id</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>http://loinc.org</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>85354-9</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Blood pressure panel with all children optional</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Observation.code.text</t>
+    <t>Observation.value[x]:valueCodeableConcept.text</t>
+  </si>
+  <si>
+    <t>Observation.value[x].text</t>
   </si>
   <si>
     <t>Plain text representation of the concept</t>
@@ -907,257 +1010,6 @@
   </si>
   <si>
     <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>Observation.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-patient)
-</t>
-  </si>
-  <si>
-    <t>Who and/or what the observation is about</t>
-  </si>
-  <si>
-    <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
-  </si>
-  <si>
-    <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.</t>
-  </si>
-  <si>
-    <t>Observations have no value if you don't know who or what they're about.</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>participation[typeCode=RTGT]</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>Observation.focus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>What the observation is about, when it is not about the subject of record</t>
-  </si>
-  <si>
-    <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
-  </si>
-  <si>
-    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/R4/extension-observation-focuscode.html).</t>
-  </si>
-  <si>
-    <t>participation[typeCode=SBJ]</t>
-  </si>
-  <si>
-    <t>Observation.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Context
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-encounter)
-</t>
-  </si>
-  <si>
-    <t>Healthcare event during which this observation is made</t>
-  </si>
-  <si>
-    <t>The healthcare event  (e.g. a patient and healthcare provider interaction) during which this observation is made.</t>
-  </si>
-  <si>
-    <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).</t>
-  </si>
-  <si>
-    <t>For some observations it may be important to know the link between an observation and a particular encounter.</t>
-  </si>
-  <si>
-    <t>Event.context</t>
-  </si>
-  <si>
-    <t>PV1</t>
-  </si>
-  <si>
-    <t>inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>Observation.effective[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occurrence
-</t>
-  </si>
-  <si>
-    <t>dateTime
-PeriodTiminginstant</t>
-  </si>
-  <si>
-    <t>Clinically relevant time/time-period for observation</t>
-  </si>
-  <si>
-    <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>
-  </si>
-  <si>
-    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/R4/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
-  </si>
-  <si>
-    <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>OBX-14, and/or OBX-19 after v2.4  (depends on who observation made)</t>
-  </si>
-  <si>
-    <t>effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>Observation.issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>Date/Time this version was made available</t>
-  </si>
-  <si>
-    <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
-  </si>
-  <si>
-    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/R4/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
-  </si>
-  <si>
-    <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
-  </si>
-  <si>
-    <t>participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>Observation.performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|CareTeam|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Who is responsible for the observation</t>
-  </si>
-  <si>
-    <t>Who was responsible for asserting the observed value as "true".</t>
-  </si>
-  <si>
-    <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
-  </si>
-  <si>
-    <t>Event.performer.actor</t>
-  </si>
-  <si>
-    <t>OBX.15 / (Practitioner)  OBX-16,  PRT-5:PRT-4='RO' /  (Device)  OBX-18 , PRT-10:PRT-4='EQUIP' / (Organization)  OBX-23,  PRT-8:PRT-4='PO'</t>
-  </si>
-  <si>
-    <t>participation[typeCode=PRF]</t>
-  </si>
-  <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>Observation.value[x]</t>
-  </si>
-  <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
-  </si>
-  <si>
-    <t>Actual result</t>
-  </si>
-  <si>
-    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
-  </si>
-  <si>
-    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
-  </si>
-  <si>
-    <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obs-7
-</t>
-  </si>
-  <si>
-    <t>&lt; 441742003 |Evaluation finding|</t>
-  </si>
-  <si>
-    <t>OBX.2, OBX.5, OBX.6</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>363714003 |Interprets|</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueBoolean</t>
-  </si>
-  <si>
-    <t>valueBoolean</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>Specify blood pressure components</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueCodeableConcept.id</t>
-  </si>
-  <si>
-    <t>Observation.value[x].id</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueCodeableConcept.extension</t>
-  </si>
-  <si>
-    <t>Observation.value[x].extension</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueCodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>Observation.value[x].coding</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueCodeableConcept.text</t>
-  </si>
-  <si>
-    <t>Observation.value[x].text</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason</t>
@@ -1596,6 +1448,10 @@
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:code}
+</t>
+  </si>
+  <si>
     <t>containment by OBX-4?</t>
   </si>
   <si>
@@ -1662,6 +1518,132 @@
   </si>
   <si>
     <t>Guidance on how to interpret the value by comparison to a normal or recommended range.</t>
+  </si>
+  <si>
+    <t>Observation.component:systolic</t>
+  </si>
+  <si>
+    <t>systolic</t>
+  </si>
+  <si>
+    <t>Observation.component:systolic.id</t>
+  </si>
+  <si>
+    <t>Observation.component:systolic.extension</t>
+  </si>
+  <si>
+    <t>Observation.component:systolic.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.component:systolic.code</t>
+  </si>
+  <si>
+    <t>Observation.component:systolic.code.id</t>
+  </si>
+  <si>
+    <t>Observation.component.code.id</t>
+  </si>
+  <si>
+    <t>Observation.component:systolic.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.component.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.component:systolic.code.coding</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://snomed.info/sct"/&gt;
+  &lt;code value="271649006"/&gt;
+  &lt;display value="Systolic blood pressure (observable entity)"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>Observation.component:systolic.code.text</t>
+  </si>
+  <si>
+    <t>Observation.component.code.text</t>
+  </si>
+  <si>
+    <t>Observation.component:systolic.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Observation.component:systolic.value[x]:valueQuantity</t>
+  </si>
+  <si>
+    <t>valueQuantity</t>
+  </si>
+  <si>
+    <t>Observation.component:systolic.dataAbsentReason</t>
+  </si>
+  <si>
+    <t>Observation.component:systolic.interpretation</t>
+  </si>
+  <si>
+    <t>Observation.component:systolic.referenceRange</t>
+  </si>
+  <si>
+    <t>Observation.component:diastolic</t>
+  </si>
+  <si>
+    <t>diastolic</t>
+  </si>
+  <si>
+    <t>Observation.component:diastolic.id</t>
+  </si>
+  <si>
+    <t>Observation.component:diastolic.extension</t>
+  </si>
+  <si>
+    <t>Observation.component:diastolic.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.component:diastolic.code</t>
+  </si>
+  <si>
+    <t>Observation.component:diastolic.code.id</t>
+  </si>
+  <si>
+    <t>Observation.component:diastolic.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.component:diastolic.code.coding</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://snomed.info/sct"/&gt;
+  &lt;code value="271650006"/&gt;
+  &lt;display value="Diastolic blood pressure (observable entity)"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>Observation.component:diastolic.code.text</t>
+  </si>
+  <si>
+    <t>Observation.component:diastolic.value[x]</t>
+  </si>
+  <si>
+    <t>Observation.component:diastolic.value[x]:valueQuantity</t>
+  </si>
+  <si>
+    <t>Observation.component:diastolic.dataAbsentReason</t>
+  </si>
+  <si>
+    <t>Observation.component:diastolic.interpretation</t>
+  </si>
+  <si>
+    <t>Observation.component:diastolic.referenceRange</t>
   </si>
 </sst>
 </file>
@@ -1989,7 +1971,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP68"/>
+  <dimension ref="A1:AP84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1998,7 +1980,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.31640625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="38.30078125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="19.078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
@@ -3975,7 +3957,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>216</v>
       </c>
@@ -3988,19 +3970,19 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>94</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>217</v>
@@ -4011,8 +3993,12 @@
       <c r="M17" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="N17" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>83</v>
       </c>
@@ -4060,7 +4046,7 @@
         <v>83</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
@@ -4072,22 +4058,22 @@
         <v>83</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>83</v>
+        <v>222</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>83</v>
+        <v>223</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>83</v>
+        <v>225</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>83</v>
@@ -4095,14 +4081,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -4118,19 +4104,19 @@
         <v>83</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>140</v>
+        <v>227</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>141</v>
+        <v>228</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>143</v>
+        <v>230</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4168,19 +4154,19 @@
         <v>83</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>224</v>
+        <v>83</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>225</v>
+        <v>83</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -4192,7 +4178,7 @@
         <v>83</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>83</v>
@@ -4201,28 +4187,28 @@
         <v>83</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>83</v>
+        <v>212</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>83</v>
+        <v>225</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>83</v>
+        <v>233</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -4232,7 +4218,7 @@
         <v>94</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>83</v>
@@ -4241,19 +4227,19 @@
         <v>95</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>83</v>
@@ -4302,13 +4288,13 @@
         <v>83</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>83</v>
@@ -4317,34 +4303,34 @@
         <v>106</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>83</v>
+        <v>239</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>83</v>
+        <v>242</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>83</v>
+        <v>244</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4354,25 +4340,29 @@
         <v>94</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>83</v>
       </c>
@@ -4420,7 +4410,7 @@
         <v>83</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4432,22 +4422,22 @@
         <v>83</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>83</v>
+        <v>250</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>83</v>
+        <v>251</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>83</v>
+        <v>253</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>83</v>
@@ -4455,21 +4445,21 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>83</v>
@@ -4478,19 +4468,19 @@
         <v>83</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>140</v>
+        <v>255</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>141</v>
+        <v>256</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>143</v>
+        <v>258</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4528,31 +4518,31 @@
         <v>83</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>224</v>
+        <v>83</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>225</v>
+        <v>83</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>226</v>
+        <v>83</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>83</v>
@@ -4561,13 +4551,13 @@
         <v>83</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>83</v>
+        <v>259</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>221</v>
+        <v>260</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>83</v>
+        <v>261</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>83</v>
@@ -4575,10 +4565,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4589,7 +4579,7 @@
         <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>83</v>
@@ -4601,26 +4591,24 @@
         <v>95</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>108</v>
+        <v>263</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>244</v>
+        <v>83</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>83</v>
@@ -4662,13 +4650,13 @@
         <v>83</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>83</v>
@@ -4677,19 +4665,19 @@
         <v>106</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>83</v>
+        <v>267</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>83</v>
+        <v>270</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>83</v>
@@ -4697,10 +4685,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4723,18 +4711,20 @@
         <v>95</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>217</v>
+        <v>272</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O23" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>83</v>
       </c>
@@ -4770,19 +4760,17 @@
         <v>83</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="AC23" s="2"/>
       <c r="AD23" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>83</v>
+        <v>278</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -4791,7 +4779,7 @@
         <v>94</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>83</v>
+        <v>279</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>106</v>
@@ -4800,29 +4788,31 @@
         <v>83</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>83</v>
+        <v>280</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="D24" t="s" s="2">
         <v>83</v>
       </c>
@@ -4843,17 +4833,19 @@
         <v>95</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>114</v>
+        <v>192</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="O24" t="s" s="2">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>83</v>
@@ -4863,7 +4855,7 @@
         <v>83</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>259</v>
+        <v>83</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>83</v>
@@ -4902,7 +4894,7 @@
         <v>83</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4911,7 +4903,7 @@
         <v>94</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>83</v>
+        <v>279</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>106</v>
@@ -4920,27 +4912,27 @@
         <v>83</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>83</v>
+        <v>280</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4960,21 +4952,19 @@
         <v>83</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>217</v>
+        <v>289</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>266</v>
-      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>83</v>
       </c>
@@ -4983,7 +4973,7 @@
         <v>83</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>267</v>
+        <v>83</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>83</v>
@@ -5022,7 +5012,7 @@
         <v>83</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -5034,7 +5024,7 @@
         <v>83</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>83</v>
@@ -5043,10 +5033,10 @@
         <v>83</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>269</v>
+        <v>83</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>83</v>
@@ -5057,21 +5047,21 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>83</v>
@@ -5080,23 +5070,21 @@
         <v>83</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>272</v>
+        <v>140</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>273</v>
+        <v>141</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>83</v>
       </c>
@@ -5132,31 +5120,31 @@
         <v>83</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>83</v>
+        <v>297</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>83</v>
+        <v>298</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>83</v>
+        <v>278</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>83</v>
@@ -5165,10 +5153,10 @@
         <v>83</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>278</v>
+        <v>83</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>83</v>
@@ -5179,10 +5167,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5193,7 +5181,7 @@
         <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>83</v>
@@ -5205,19 +5193,19 @@
         <v>95</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>217</v>
+        <v>302</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>83</v>
@@ -5266,13 +5254,13 @@
         <v>83</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>83</v>
@@ -5287,10 +5275,10 @@
         <v>83</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>83</v>
@@ -5301,10 +5289,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5312,7 +5300,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>94</v>
@@ -5330,16 +5318,16 @@
         <v>289</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>83</v>
@@ -5388,7 +5376,7 @@
         <v>83</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5403,19 +5391,19 @@
         <v>106</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>294</v>
+        <v>83</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>297</v>
+        <v>83</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>83</v>
@@ -5423,10 +5411,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5437,7 +5425,7 @@
         <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>83</v>
@@ -5446,21 +5434,23 @@
         <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>299</v>
+        <v>192</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>83</v>
       </c>
@@ -5484,13 +5474,13 @@
         <v>83</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>83</v>
+        <v>324</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>83</v>
+        <v>325</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>83</v>
+        <v>326</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>83</v>
@@ -5508,16 +5498,16 @@
         <v>83</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>83</v>
+        <v>327</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>106</v>
@@ -5529,59 +5519,59 @@
         <v>83</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>212</v>
+        <v>137</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>297</v>
+        <v>83</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>306</v>
+        <v>192</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>83</v>
@@ -5606,13 +5596,13 @@
         <v>83</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>83</v>
+        <v>324</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>83</v>
+        <v>335</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>83</v>
+        <v>336</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>83</v>
@@ -5630,13 +5620,13 @@
         <v>83</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>83</v>
@@ -5645,65 +5635,65 @@
         <v>106</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>311</v>
+        <v>83</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>83</v>
+        <v>337</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>314</v>
+        <v>83</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>83</v>
+        <v>340</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>316</v>
+        <v>83</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>83</v>
@@ -5752,13 +5742,13 @@
         <v>83</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>83</v>
@@ -5767,19 +5757,19 @@
         <v>106</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>322</v>
+        <v>83</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>325</v>
+        <v>83</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>83</v>
@@ -5787,10 +5777,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5810,19 +5800,19 @@
         <v>83</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>327</v>
+        <v>192</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5848,13 +5838,13 @@
         <v>83</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>83</v>
+        <v>353</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>83</v>
+        <v>354</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>83</v>
@@ -5872,7 +5862,7 @@
         <v>83</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -5890,27 +5880,27 @@
         <v>83</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>83</v>
+        <v>355</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>333</v>
+        <v>83</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>83</v>
+        <v>358</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5921,7 +5911,7 @@
         <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>83</v>
@@ -5930,20 +5920,22 @@
         <v>83</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>335</v>
+        <v>192</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O33" t="s" s="2">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>83</v>
@@ -5968,13 +5960,13 @@
         <v>83</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>83</v>
+        <v>364</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>83</v>
+        <v>365</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>83</v>
@@ -5992,13 +5984,13 @@
         <v>83</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>83</v>
@@ -6007,19 +5999,19 @@
         <v>106</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>339</v>
+        <v>83</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>342</v>
+        <v>83</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>83</v>
@@ -6027,10 +6019,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6050,23 +6042,21 @@
         <v>83</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>83</v>
       </c>
@@ -6102,17 +6092,19 @@
         <v>83</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AC34" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>226</v>
+        <v>83</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -6121,7 +6113,7 @@
         <v>94</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>350</v>
+        <v>83</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>106</v>
@@ -6130,31 +6122,29 @@
         <v>83</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>354</v>
+        <v>376</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
         <v>83</v>
       </c>
@@ -6172,23 +6162,21 @@
         <v>83</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>272</v>
+        <v>378</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>83</v>
       </c>
@@ -6236,7 +6224,7 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>343</v>
+        <v>377</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -6245,7 +6233,7 @@
         <v>94</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>350</v>
+        <v>83</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>106</v>
@@ -6254,31 +6242,29 @@
         <v>83</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>351</v>
+        <v>382</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>354</v>
+        <v>385</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>357</v>
+        <v>386</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
         <v>83</v>
       </c>
@@ -6287,7 +6273,7 @@
         <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>83</v>
@@ -6296,22 +6282,22 @@
         <v>83</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>192</v>
+        <v>387</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>359</v>
+        <v>388</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>346</v>
+        <v>389</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>83</v>
@@ -6360,45 +6346,45 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>343</v>
+        <v>386</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>350</v>
+        <v>83</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>106</v>
+        <v>392</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>351</v>
+        <v>83</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>352</v>
+        <v>393</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>354</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>361</v>
+        <v>395</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6421,13 +6407,13 @@
         <v>83</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>217</v>
+        <v>289</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>218</v>
+        <v>290</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>219</v>
+        <v>291</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6478,7 +6464,7 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>220</v>
+        <v>292</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6502,7 +6488,7 @@
         <v>83</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>221</v>
+        <v>293</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>83</v>
@@ -6513,10 +6499,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>362</v>
+        <v>396</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6545,7 +6531,7 @@
         <v>141</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>223</v>
+        <v>296</v>
       </c>
       <c r="N38" t="s" s="2">
         <v>143</v>
@@ -6586,19 +6572,19 @@
         <v>83</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>224</v>
+        <v>83</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>225</v>
+        <v>83</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>226</v>
+        <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>227</v>
+        <v>299</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6622,7 +6608,7 @@
         <v>83</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>221</v>
+        <v>293</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>83</v>
@@ -6633,14 +6619,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>365</v>
+        <v>397</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>83</v>
+        <v>398</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6653,25 +6639,25 @@
         <v>83</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>229</v>
+        <v>140</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>230</v>
+        <v>399</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>231</v>
+        <v>400</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>232</v>
+        <v>143</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>233</v>
+        <v>149</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>83</v>
@@ -6720,7 +6706,7 @@
         <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>234</v>
+        <v>401</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6732,7 +6718,7 @@
         <v>83</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>83</v>
@@ -6741,10 +6727,10 @@
         <v>83</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>235</v>
+        <v>83</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>236</v>
+        <v>137</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>83</v>
@@ -6753,12 +6739,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>366</v>
+        <v>402</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6772,29 +6758,25 @@
         <v>94</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>217</v>
+        <v>403</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>281</v>
+        <v>404</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>83</v>
       </c>
@@ -6842,7 +6824,7 @@
         <v>83</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>285</v>
+        <v>402</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6851,7 +6833,7 @@
         <v>94</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>83</v>
+        <v>406</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>106</v>
@@ -6863,10 +6845,10 @@
         <v>83</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>286</v>
+        <v>407</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>287</v>
+        <v>408</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>83</v>
@@ -6877,10 +6859,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>368</v>
+        <v>409</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>368</v>
+        <v>409</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6903,20 +6885,16 @@
         <v>83</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>192</v>
+        <v>403</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>83</v>
       </c>
@@ -6940,13 +6918,13 @@
         <v>83</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>373</v>
+        <v>83</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>374</v>
+        <v>83</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>375</v>
+        <v>83</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>83</v>
@@ -6964,7 +6942,7 @@
         <v>83</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>368</v>
+        <v>409</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -6973,7 +6951,7 @@
         <v>94</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>376</v>
+        <v>406</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>106</v>
@@ -6985,10 +6963,10 @@
         <v>83</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>137</v>
+        <v>407</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>83</v>
@@ -6999,21 +6977,21 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>379</v>
+        <v>83</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>83</v>
@@ -7028,16 +7006,16 @@
         <v>192</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>381</v>
+        <v>415</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>382</v>
+        <v>416</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>383</v>
+        <v>417</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>83</v>
@@ -7062,13 +7040,13 @@
         <v>83</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>373</v>
+        <v>118</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>384</v>
+        <v>418</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>385</v>
+        <v>419</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>83</v>
@@ -7086,13 +7064,13 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>83</v>
@@ -7104,27 +7082,27 @@
         <v>83</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>386</v>
+        <v>420</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>387</v>
+        <v>421</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>388</v>
+        <v>339</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>389</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>390</v>
+        <v>422</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>390</v>
+        <v>422</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7147,19 +7125,19 @@
         <v>83</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>391</v>
+        <v>192</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>392</v>
+        <v>423</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>393</v>
+        <v>424</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>394</v>
+        <v>425</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>395</v>
+        <v>426</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>83</v>
@@ -7184,13 +7162,13 @@
         <v>83</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>83</v>
+        <v>427</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>83</v>
+        <v>428</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>83</v>
@@ -7208,7 +7186,7 @@
         <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>390</v>
+        <v>422</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7226,13 +7204,13 @@
         <v>83</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>83</v>
+        <v>420</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>397</v>
+        <v>339</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>83</v>
@@ -7243,10 +7221,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>398</v>
+        <v>429</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>398</v>
+        <v>429</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7269,18 +7247,18 @@
         <v>83</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>192</v>
+        <v>430</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>399</v>
+        <v>431</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>83</v>
       </c>
@@ -7304,13 +7282,13 @@
         <v>83</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>402</v>
+        <v>83</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>403</v>
+        <v>83</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>83</v>
@@ -7328,7 +7306,7 @@
         <v>83</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>398</v>
+        <v>429</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7346,27 +7324,27 @@
         <v>83</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>404</v>
+        <v>83</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>405</v>
+        <v>83</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>406</v>
+        <v>434</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>407</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7389,20 +7367,16 @@
         <v>83</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>192</v>
+        <v>289</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>409</v>
+        <v>436</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>83</v>
       </c>
@@ -7426,13 +7400,13 @@
         <v>83</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>413</v>
+        <v>83</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>414</v>
+        <v>83</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>83</v>
@@ -7450,7 +7424,7 @@
         <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7471,10 +7445,10 @@
         <v>83</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>416</v>
+        <v>438</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>83</v>
@@ -7485,10 +7459,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>417</v>
+        <v>439</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>417</v>
+        <v>439</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7499,7 +7473,7 @@
         <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>83</v>
@@ -7508,19 +7482,19 @@
         <v>83</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7570,13 +7544,13 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>417</v>
+        <v>439</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>83</v>
@@ -7588,27 +7562,27 @@
         <v>83</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>422</v>
+        <v>83</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>423</v>
+        <v>444</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>424</v>
+        <v>445</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>425</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7619,7 +7593,7 @@
         <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>83</v>
@@ -7628,19 +7602,19 @@
         <v>83</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7690,13 +7664,13 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>83</v>
@@ -7708,27 +7682,27 @@
         <v>83</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>431</v>
+        <v>83</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>433</v>
+        <v>451</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>434</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7742,28 +7716,28 @@
         <v>82</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>436</v>
+        <v>387</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>83</v>
@@ -7800,19 +7774,17 @@
         <v>83</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="AC48" s="2"/>
       <c r="AD48" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>83</v>
+        <v>278</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -7824,7 +7796,7 @@
         <v>83</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>441</v>
+        <v>106</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>83</v>
@@ -7833,10 +7805,10 @@
         <v>83</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>83</v>
@@ -7847,10 +7819,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7873,13 +7845,13 @@
         <v>83</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>217</v>
+        <v>289</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>218</v>
+        <v>290</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>219</v>
+        <v>291</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7930,7 +7902,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>220</v>
+        <v>292</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -7954,7 +7926,7 @@
         <v>83</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>221</v>
+        <v>293</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>83</v>
@@ -7965,10 +7937,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7997,7 +7969,7 @@
         <v>141</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>223</v>
+        <v>296</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>143</v>
@@ -8050,7 +8022,7 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>227</v>
+        <v>299</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8074,7 +8046,7 @@
         <v>83</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>221</v>
+        <v>293</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>83</v>
@@ -8085,14 +8057,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>447</v>
+        <v>398</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8114,10 +8086,10 @@
         <v>140</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>448</v>
+        <v>399</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>449</v>
+        <v>400</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>143</v>
@@ -8172,7 +8144,7 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>450</v>
+        <v>401</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8207,10 +8179,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8218,7 +8190,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>94</v>
@@ -8230,19 +8202,23 @@
         <v>83</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>452</v>
+        <v>192</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>83</v>
       </c>
@@ -8266,13 +8242,13 @@
         <v>83</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>83</v>
+        <v>208</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>83</v>
+        <v>209</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>83</v>
@@ -8290,16 +8266,16 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>455</v>
+        <v>83</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>106</v>
@@ -8308,16 +8284,16 @@
         <v>83</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>83</v>
+        <v>467</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>456</v>
+        <v>212</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>457</v>
+        <v>213</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>83</v>
@@ -8325,10 +8301,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8348,19 +8324,23 @@
         <v>83</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>452</v>
+        <v>272</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>83</v>
       </c>
@@ -8408,7 +8388,7 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8417,7 +8397,7 @@
         <v>94</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>455</v>
+        <v>83</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>106</v>
@@ -8426,27 +8406,27 @@
         <v>83</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>83</v>
+        <v>471</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>456</v>
+        <v>281</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>461</v>
+        <v>282</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8472,16 +8452,16 @@
         <v>192</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>466</v>
+        <v>323</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>83</v>
@@ -8506,13 +8486,13 @@
         <v>83</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>118</v>
+        <v>324</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>467</v>
+        <v>325</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>468</v>
+        <v>326</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>83</v>
@@ -8530,7 +8510,7 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8539,7 +8519,7 @@
         <v>94</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>83</v>
+        <v>327</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>106</v>
@@ -8548,13 +8528,13 @@
         <v>83</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>469</v>
+        <v>83</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>470</v>
+        <v>137</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>388</v>
+        <v>328</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>83</v>
@@ -8565,14 +8545,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>83</v>
+        <v>330</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8594,16 +8574,16 @@
         <v>192</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>472</v>
+        <v>331</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>473</v>
+        <v>332</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>474</v>
+        <v>333</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>475</v>
+        <v>334</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>83</v>
@@ -8628,31 +8608,31 @@
         <v>83</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>207</v>
+        <v>324</v>
       </c>
       <c r="Y55" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF55" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -8670,27 +8650,27 @@
         <v>83</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>469</v>
+        <v>337</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>470</v>
+        <v>338</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>388</v>
+        <v>339</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>83</v>
+        <v>340</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8701,7 +8681,7 @@
         <v>81</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>83</v>
@@ -8713,17 +8693,19 @@
         <v>83</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="L56" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N56" s="2"/>
+      <c r="N56" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="O56" t="s" s="2">
-        <v>482</v>
+        <v>391</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>83</v>
@@ -8772,13 +8754,13 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>83</v>
@@ -8793,10 +8775,10 @@
         <v>83</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>83</v>
+        <v>393</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>483</v>
+        <v>394</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>83</v>
@@ -8807,12 +8789,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>481</v>
+      </c>
       <c r="D57" t="s" s="2">
         <v>83</v>
       </c>
@@ -8830,19 +8814,23 @@
         <v>83</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>217</v>
+        <v>387</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>83</v>
       </c>
@@ -8890,13 +8878,13 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>484</v>
+        <v>452</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>83</v>
@@ -8911,10 +8899,10 @@
         <v>83</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>487</v>
+        <v>459</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>83</v>
@@ -8925,10 +8913,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>488</v>
+        <v>460</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8939,7 +8927,7 @@
         <v>81</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>83</v>
@@ -8948,20 +8936,18 @@
         <v>83</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>489</v>
+        <v>289</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>490</v>
+        <v>290</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>492</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>83</v>
@@ -9010,19 +8996,19 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>488</v>
+        <v>292</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>83</v>
@@ -9031,10 +9017,10 @@
         <v>83</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>493</v>
+        <v>83</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>494</v>
+        <v>293</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>83</v>
@@ -9045,14 +9031,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>495</v>
+        <v>461</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -9068,19 +9054,19 @@
         <v>83</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>496</v>
+        <v>140</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>497</v>
+        <v>141</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>498</v>
+        <v>296</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>499</v>
+        <v>143</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9130,7 +9116,7 @@
         <v>83</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>495</v>
+        <v>299</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -9142,7 +9128,7 @@
         <v>83</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>83</v>
@@ -9151,10 +9137,10 @@
         <v>83</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>493</v>
+        <v>83</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>500</v>
+        <v>293</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>83</v>
@@ -9165,14 +9151,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>501</v>
+        <v>462</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>83</v>
+        <v>398</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9185,25 +9171,25 @@
         <v>83</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>436</v>
+        <v>140</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>502</v>
+        <v>399</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>503</v>
+        <v>400</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>504</v>
+        <v>143</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>505</v>
+        <v>149</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>83</v>
@@ -9252,7 +9238,7 @@
         <v>83</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9264,7 +9250,7 @@
         <v>83</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>83</v>
@@ -9273,10 +9259,10 @@
         <v>83</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>506</v>
+        <v>83</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>507</v>
+        <v>137</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>83</v>
@@ -9287,10 +9273,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>508</v>
+        <v>463</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9298,7 +9284,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>94</v>
@@ -9310,19 +9296,23 @@
         <v>83</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>218</v>
+        <v>464</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>83</v>
       </c>
@@ -9346,13 +9336,13 @@
         <v>83</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>83</v>
+        <v>208</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>83</v>
+        <v>209</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>83</v>
@@ -9370,10 +9360,10 @@
         <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>220</v>
+        <v>463</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>94</v>
@@ -9382,22 +9372,22 @@
         <v>83</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>83</v>
+        <v>467</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>83</v>
+        <v>212</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>83</v>
@@ -9405,21 +9395,21 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>509</v>
+        <v>486</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>509</v>
+        <v>487</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>83</v>
@@ -9431,17 +9421,15 @@
         <v>83</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>140</v>
+        <v>289</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>141</v>
+        <v>290</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>83</v>
@@ -9490,19 +9478,19 @@
         <v>83</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>227</v>
+        <v>292</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>83</v>
@@ -9514,7 +9502,7 @@
         <v>83</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>221</v>
+        <v>293</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>83</v>
@@ -9525,14 +9513,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>510</v>
+        <v>488</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>510</v>
+        <v>489</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>447</v>
+        <v>139</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9545,26 +9533,24 @@
         <v>83</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>448</v>
+        <v>141</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>449</v>
+        <v>296</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="O63" t="s" s="2">
-        <v>149</v>
-      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>83</v>
       </c>
@@ -9600,19 +9586,19 @@
         <v>83</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>83</v>
+        <v>297</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>83</v>
+        <v>298</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>83</v>
+        <v>278</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>450</v>
+        <v>299</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -9636,7 +9622,7 @@
         <v>83</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>137</v>
+        <v>293</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>83</v>
@@ -9647,10 +9633,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>511</v>
+        <v>490</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>511</v>
+        <v>491</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9658,7 +9644,7 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>94</v>
@@ -9673,26 +9659,26 @@
         <v>95</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>192</v>
+        <v>302</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>512</v>
+        <v>303</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>513</v>
+        <v>304</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>514</v>
+        <v>305</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>206</v>
+        <v>306</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
-        <v>83</v>
+        <v>492</v>
       </c>
       <c r="S64" t="s" s="2">
         <v>83</v>
@@ -9710,13 +9696,13 @@
         <v>83</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>208</v>
+        <v>83</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>209</v>
+        <v>83</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>83</v>
@@ -9734,13 +9720,13 @@
         <v>83</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>511</v>
+        <v>307</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>83</v>
@@ -9752,16 +9738,16 @@
         <v>83</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>515</v>
+        <v>83</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>212</v>
+        <v>308</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>213</v>
+        <v>309</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>214</v>
+        <v>83</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>83</v>
@@ -9769,10 +9755,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>516</v>
+        <v>493</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>516</v>
+        <v>494</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9795,19 +9781,19 @@
         <v>95</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>344</v>
+        <v>289</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>517</v>
+        <v>312</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>518</v>
+        <v>314</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>83</v>
@@ -9856,7 +9842,7 @@
         <v>83</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>516</v>
+        <v>316</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
@@ -9874,27 +9860,27 @@
         <v>83</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>519</v>
+        <v>83</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>354</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>520</v>
+        <v>495</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>520</v>
+        <v>468</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9902,7 +9888,7 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>94</v>
@@ -9914,22 +9900,22 @@
         <v>83</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>192</v>
+        <v>496</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>521</v>
+        <v>469</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>522</v>
+        <v>274</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>523</v>
+        <v>470</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>372</v>
+        <v>276</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>83</v>
@@ -9954,31 +9940,29 @@
         <v>83</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>373</v>
+        <v>83</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>374</v>
+        <v>83</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>375</v>
+        <v>83</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="AC66" s="2"/>
       <c r="AD66" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>83</v>
+        <v>497</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>520</v>
+        <v>468</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -9987,7 +9971,7 @@
         <v>94</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>376</v>
+        <v>83</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>106</v>
@@ -9996,62 +9980,64 @@
         <v>83</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>83</v>
+        <v>471</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>137</v>
+        <v>281</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>377</v>
+        <v>282</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>524</v>
+        <v>498</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="C67" s="2"/>
+        <v>468</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>499</v>
+      </c>
       <c r="D67" t="s" s="2">
-        <v>379</v>
+        <v>83</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>192</v>
+        <v>496</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>380</v>
+        <v>469</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>381</v>
+        <v>274</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>382</v>
+        <v>470</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>383</v>
+        <v>276</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>83</v>
@@ -10076,13 +10062,13 @@
         <v>83</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>373</v>
+        <v>83</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>384</v>
+        <v>83</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>385</v>
+        <v>83</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>83</v>
@@ -10100,13 +10086,13 @@
         <v>83</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>524</v>
+        <v>468</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>83</v>
@@ -10118,27 +10104,27 @@
         <v>83</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>386</v>
+        <v>471</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>387</v>
+        <v>281</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>388</v>
+        <v>282</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>389</v>
+        <v>283</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>525</v>
+        <v>472</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10149,7 +10135,7 @@
         <v>81</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>83</v>
@@ -10161,19 +10147,19 @@
         <v>83</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>84</v>
+        <v>192</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>526</v>
+        <v>473</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>527</v>
+        <v>474</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>439</v>
+        <v>475</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>440</v>
+        <v>323</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>83</v>
@@ -10198,13 +10184,13 @@
         <v>83</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>83</v>
+        <v>324</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>83</v>
+        <v>325</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>83</v>
+        <v>326</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>83</v>
@@ -10222,16 +10208,16 @@
         <v>83</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>525</v>
+        <v>472</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>83</v>
+        <v>327</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>106</v>
@@ -10243,20 +10229,1962 @@
         <v>83</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>442</v>
+        <v>137</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>443</v>
+        <v>328</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP68" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="P69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP69" t="s" s="2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="P70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP70" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="D71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="P71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP71" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP72" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP73" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="P74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP74" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="P75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AP75" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP76" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP77" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="P78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP78" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="P79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP79" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="P80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AC80" s="2"/>
+      <c r="AD80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP80" t="s" s="2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="D81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="P81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP81" t="s" s="2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="P82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AO82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP82" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="P83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AO83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP83" t="s" s="2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="P84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP84" t="s" s="2">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP68">
+  <autoFilter ref="A1:AP84">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10266,7 +12194,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI67">
+  <conditionalFormatting sqref="A2:AI83">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:04:35+00:00</t>
+    <t>2025-10-28T15:40:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:40:43+00:00</t>
+    <t>2025-10-28T15:55:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:55:35+00:00</t>
+    <t>2025-10-28T23:57:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -9678,10 +9678,10 @@
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S64" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>83</v>
@@ -11376,10 +11376,10 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S78" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>83</v>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T23:57:44+00:00</t>
+    <t>2025-10-29T00:11:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:11:30+00:00</t>
+    <t>2025-10-29T00:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:33:44+00:00</t>
+    <t>2025-10-29T01:19:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T01:19:27+00:00</t>
+    <t>2025-10-29T02:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:00:22+00:00</t>
+    <t>2025-10-29T02:25:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:25:56+00:00</t>
+    <t>2025-10-29T03:19:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T03:19:57+00:00</t>
+    <t>2025-10-29T04:24:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T04:24:57+00:00</t>
+    <t>2025-10-29T05:09:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:09:17+00:00</t>
+    <t>2025-10-29T05:13:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:13:56+00:00</t>
+    <t>2025-10-29T05:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:50:12+00:00</t>
+    <t>2025-10-29T13:28:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T13:28:47+00:00</t>
+    <t>2025-10-29T15:51:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:51:20+00:00</t>
+    <t>2025-10-30T01:53:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T01:53:15+00:00</t>
+    <t>2025-10-30T02:40:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T02:40:54+00:00</t>
+    <t>2025-10-30T03:27:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T03:27:09+00:00</t>
+    <t>2025-10-30T05:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T05:39:55+00:00</t>
+    <t>2025-10-31T16:32:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1558,6 +1558,7 @@
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
   &lt;system value="http://snomed.info/sct"/&gt;
+  &lt;version value="http://snomed.info/sct/900000000000207008/version/20241001"/&gt;
   &lt;code value="271649006"/&gt;
   &lt;display value="Systolic blood pressure (observable entity)"/&gt;
 &lt;/valueCoding&gt;</t>
@@ -1623,6 +1624,7 @@
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
   &lt;system value="http://snomed.info/sct"/&gt;
+  &lt;version value="http://snomed.info/sct/900000000000207008/version/20241001"/&gt;
   &lt;code value="271650006"/&gt;
   &lt;display value="Diastolic blood pressure (observable entity)"/&gt;
 &lt;/valueCoding&gt;</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-31T16:32:57+00:00</t>
+    <t>2025-11-01T02:32:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T02:32:07+00:00</t>
+    <t>2025-11-01T03:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:00:46+00:00</t>
+    <t>2025-11-01T03:08:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:08:11+00:00</t>
+    <t>2025-11-01T11:24:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T11:24:55+00:00</t>
+    <t>2025-11-03T06:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T06:02:43+00:00</t>
+    <t>2025-11-03T09:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T09:29:05+00:00</t>
+    <t>2025-11-04T05:19:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T05:19:01+00:00</t>
+    <t>2025-11-05T05:21:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T05:21:38+00:00</t>
+    <t>2025-11-06T11:55:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T11:55:20+00:00</t>
+    <t>2025-11-07T10:27:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T10:27:49+00:00</t>
+    <t>2025-11-08T13:50:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3837,7 +3837,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>201</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>94</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>83</v>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-08T13:50:02+00:00</t>
+    <t>2025-11-09T01:35:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$76</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3271" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2965" uniqueCount="508">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T01:35:45+00:00</t>
+    <t>2025-11-09T06:04:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -660,6 +660,15 @@
   </si>
   <si>
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://loinc.org"/&gt;
+    &lt;code value="85354-9"/&gt;
+    &lt;display value="Blood pressure panel with all children optional"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>example</t>
@@ -1538,36 +1547,14 @@
     <t>Observation.component:systolic.code</t>
   </si>
   <si>
-    <t>Observation.component:systolic.code.id</t>
-  </si>
-  <si>
-    <t>Observation.component.code.id</t>
-  </si>
-  <si>
-    <t>Observation.component:systolic.code.extension</t>
-  </si>
-  <si>
-    <t>Observation.component.code.extension</t>
-  </si>
-  <si>
-    <t>Observation.component:systolic.code.coding</t>
-  </si>
-  <si>
-    <t>Observation.component.code.coding</t>
-  </si>
-  <si>
-    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="http://snomed.info/sct"/&gt;
-  &lt;version value="http://snomed.info/sct/900000000000207008/version/20241001"/&gt;
-  &lt;code value="271649006"/&gt;
-  &lt;display value="Systolic blood pressure (observable entity)"/&gt;
-&lt;/valueCoding&gt;</t>
-  </si>
-  <si>
-    <t>Observation.component:systolic.code.text</t>
-  </si>
-  <si>
-    <t>Observation.component.code.text</t>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://snomed.info/sct"/&gt;
+    &lt;version value="http://snomed.info/sct/900000000000207008/version/20241001"/&gt;
+    &lt;code value="271649006"/&gt;
+    &lt;display value="Systolic blood pressure (observable entity)"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>Observation.component:systolic.value[x]</t>
@@ -1613,24 +1600,14 @@
     <t>Observation.component:diastolic.code</t>
   </si>
   <si>
-    <t>Observation.component:diastolic.code.id</t>
-  </si>
-  <si>
-    <t>Observation.component:diastolic.code.extension</t>
-  </si>
-  <si>
-    <t>Observation.component:diastolic.code.coding</t>
-  </si>
-  <si>
-    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="http://snomed.info/sct"/&gt;
-  &lt;version value="http://snomed.info/sct/900000000000207008/version/20241001"/&gt;
-  &lt;code value="271650006"/&gt;
-  &lt;display value="Diastolic blood pressure (observable entity)"/&gt;
-&lt;/valueCoding&gt;</t>
-  </si>
-  <si>
-    <t>Observation.component:diastolic.code.text</t>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://snomed.info/sct"/&gt;
+    &lt;version value="http://snomed.info/sct/900000000000207008/version/20241001"/&gt;
+    &lt;code value="271650006"/&gt;
+    &lt;display value="Diastolic blood pressure (observable entity)"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>Observation.component:diastolic.value[x]</t>
@@ -1973,7 +1950,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP84"/>
+  <dimension ref="A1:AP76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3887,7 +3864,7 @@
         <v>83</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>83</v>
@@ -3902,13 +3879,13 @@
         <v>83</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>83</v>
@@ -3941,30 +3918,30 @@
         <v>106</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3987,19 +3964,19 @@
         <v>95</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>83</v>
@@ -4048,7 +4025,7 @@
         <v>83</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
@@ -4063,19 +4040,19 @@
         <v>106</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>83</v>
@@ -4083,10 +4060,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4109,16 +4086,16 @@
         <v>95</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4168,7 +4145,7 @@
         <v>83</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -4189,13 +4166,13 @@
         <v>83</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>83</v>
@@ -4203,14 +4180,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -4229,19 +4206,19 @@
         <v>95</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>83</v>
@@ -4290,7 +4267,7 @@
         <v>83</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -4305,19 +4282,19 @@
         <v>106</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>83</v>
@@ -4325,14 +4302,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4351,19 +4328,19 @@
         <v>95</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>83</v>
@@ -4412,7 +4389,7 @@
         <v>83</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4427,19 +4404,19 @@
         <v>106</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>83</v>
@@ -4447,10 +4424,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4473,16 +4450,16 @@
         <v>95</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4532,7 +4509,7 @@
         <v>83</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
@@ -4553,13 +4530,13 @@
         <v>83</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>83</v>
@@ -4567,10 +4544,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4593,17 +4570,17 @@
         <v>95</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>83</v>
@@ -4652,7 +4629,7 @@
         <v>83</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -4667,19 +4644,19 @@
         <v>106</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>83</v>
@@ -4687,10 +4664,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4713,19 +4690,19 @@
         <v>95</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>83</v>
@@ -4762,17 +4739,17 @@
         <v>83</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -4781,7 +4758,7 @@
         <v>94</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>106</v>
@@ -4790,30 +4767,30 @@
         <v>83</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>83</v>
@@ -4838,16 +4815,16 @@
         <v>192</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>83</v>
@@ -4896,7 +4873,7 @@
         <v>83</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4905,7 +4882,7 @@
         <v>94</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>106</v>
@@ -4914,27 +4891,27 @@
         <v>83</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4957,13 +4934,13 @@
         <v>83</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5014,7 +4991,7 @@
         <v>83</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -5038,7 +5015,7 @@
         <v>83</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>83</v>
@@ -5049,10 +5026,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5081,7 +5058,7 @@
         <v>141</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N26" t="s" s="2">
         <v>143</v>
@@ -5122,19 +5099,19 @@
         <v>83</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -5158,7 +5135,7 @@
         <v>83</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>83</v>
@@ -5169,10 +5146,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5195,19 +5172,19 @@
         <v>95</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>83</v>
@@ -5256,7 +5233,7 @@
         <v>83</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -5277,10 +5254,10 @@
         <v>83</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>83</v>
@@ -5291,10 +5268,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5317,19 +5294,19 @@
         <v>95</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>83</v>
@@ -5378,7 +5355,7 @@
         <v>83</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5399,10 +5376,10 @@
         <v>83</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>83</v>
@@ -5413,10 +5390,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5442,16 +5419,16 @@
         <v>192</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>83</v>
@@ -5476,13 +5453,13 @@
         <v>83</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>83</v>
@@ -5500,7 +5477,7 @@
         <v>83</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -5509,7 +5486,7 @@
         <v>94</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>106</v>
@@ -5524,7 +5501,7 @@
         <v>137</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>83</v>
@@ -5535,14 +5512,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5564,16 +5541,16 @@
         <v>192</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>83</v>
@@ -5598,13 +5575,13 @@
         <v>83</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>83</v>
@@ -5622,7 +5599,7 @@
         <v>83</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
@@ -5640,27 +5617,27 @@
         <v>83</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5683,19 +5660,19 @@
         <v>83</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>83</v>
@@ -5744,7 +5721,7 @@
         <v>83</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
@@ -5765,10 +5742,10 @@
         <v>83</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>83</v>
@@ -5779,10 +5756,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5808,13 +5785,13 @@
         <v>192</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5840,13 +5817,13 @@
         <v>83</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>83</v>
@@ -5864,7 +5841,7 @@
         <v>83</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -5882,27 +5859,27 @@
         <v>83</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5928,16 +5905,16 @@
         <v>192</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>83</v>
@@ -5962,13 +5939,13 @@
         <v>83</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>83</v>
@@ -5986,7 +5963,7 @@
         <v>83</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -6007,10 +5984,10 @@
         <v>83</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>83</v>
@@ -6021,10 +5998,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6047,16 +6024,16 @@
         <v>83</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6106,7 +6083,7 @@
         <v>83</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -6124,27 +6101,27 @@
         <v>83</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6167,16 +6144,16 @@
         <v>83</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6226,7 +6203,7 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -6244,27 +6221,27 @@
         <v>83</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6287,19 +6264,19 @@
         <v>83</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>83</v>
@@ -6348,7 +6325,7 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6360,7 +6337,7 @@
         <v>83</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>83</v>
@@ -6369,10 +6346,10 @@
         <v>83</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>83</v>
@@ -6383,10 +6360,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6409,13 +6386,13 @@
         <v>83</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6466,7 +6443,7 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6490,7 +6467,7 @@
         <v>83</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>83</v>
@@ -6501,10 +6478,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6533,7 +6510,7 @@
         <v>141</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N38" t="s" s="2">
         <v>143</v>
@@ -6586,7 +6563,7 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6610,7 +6587,7 @@
         <v>83</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>83</v>
@@ -6621,14 +6598,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6650,10 +6627,10 @@
         <v>140</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N39" t="s" s="2">
         <v>143</v>
@@ -6708,7 +6685,7 @@
         <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6743,10 +6720,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6769,13 +6746,13 @@
         <v>83</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6826,7 +6803,7 @@
         <v>83</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6835,7 +6812,7 @@
         <v>94</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>106</v>
@@ -6847,10 +6824,10 @@
         <v>83</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>83</v>
@@ -6861,10 +6838,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6887,13 +6864,13 @@
         <v>83</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6944,7 +6921,7 @@
         <v>83</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -6953,7 +6930,7 @@
         <v>94</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>106</v>
@@ -6965,10 +6942,10 @@
         <v>83</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>83</v>
@@ -6979,10 +6956,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7008,16 +6985,16 @@
         <v>192</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>83</v>
@@ -7045,10 +7022,10 @@
         <v>118</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>83</v>
@@ -7066,7 +7043,7 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -7084,13 +7061,13 @@
         <v>83</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>83</v>
@@ -7101,10 +7078,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7130,16 +7107,16 @@
         <v>192</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>83</v>
@@ -7164,13 +7141,13 @@
         <v>83</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>83</v>
@@ -7188,7 +7165,7 @@
         <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7206,13 +7183,13 @@
         <v>83</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>83</v>
@@ -7223,10 +7200,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7249,17 +7226,17 @@
         <v>83</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>83</v>
@@ -7308,7 +7285,7 @@
         <v>83</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7332,7 +7309,7 @@
         <v>83</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>83</v>
@@ -7343,10 +7320,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7369,13 +7346,13 @@
         <v>83</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7426,7 +7403,7 @@
         <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7447,10 +7424,10 @@
         <v>83</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>83</v>
@@ -7461,10 +7438,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7487,16 +7464,16 @@
         <v>95</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7546,7 +7523,7 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7567,10 +7544,10 @@
         <v>83</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>83</v>
@@ -7581,10 +7558,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7607,16 +7584,16 @@
         <v>95</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7666,7 +7643,7 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -7687,10 +7664,10 @@
         <v>83</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>83</v>
@@ -7701,10 +7678,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7727,19 +7704,19 @@
         <v>95</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>83</v>
@@ -7776,17 +7753,17 @@
         <v>83</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AC48" s="2"/>
       <c r="AD48" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -7807,10 +7784,10 @@
         <v>83</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>83</v>
@@ -7821,10 +7798,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7847,13 +7824,13 @@
         <v>83</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7904,7 +7881,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -7928,7 +7905,7 @@
         <v>83</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>83</v>
@@ -7939,10 +7916,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7971,7 +7948,7 @@
         <v>141</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>143</v>
@@ -8024,7 +8001,7 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8048,7 +8025,7 @@
         <v>83</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>83</v>
@@ -8059,14 +8036,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8088,10 +8065,10 @@
         <v>140</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>143</v>
@@ -8146,7 +8123,7 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8181,10 +8158,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8210,13 +8187,13 @@
         <v>192</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>206</v>
@@ -8244,13 +8221,13 @@
         <v>83</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>83</v>
@@ -8268,7 +8245,7 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>94</v>
@@ -8286,16 +8263,16 @@
         <v>83</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>83</v>
@@ -8303,10 +8280,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8329,19 +8306,19 @@
         <v>95</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>83</v>
@@ -8390,7 +8367,7 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8408,27 +8385,27 @@
         <v>83</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8454,16 +8431,16 @@
         <v>192</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>83</v>
@@ -8488,13 +8465,13 @@
         <v>83</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>83</v>
@@ -8512,7 +8489,7 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8521,7 +8498,7 @@
         <v>94</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>106</v>
@@ -8536,7 +8513,7 @@
         <v>137</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>83</v>
@@ -8547,14 +8524,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8576,16 +8553,16 @@
         <v>192</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>83</v>
@@ -8610,13 +8587,13 @@
         <v>83</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>83</v>
@@ -8634,7 +8611,7 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -8652,27 +8629,27 @@
         <v>83</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8698,16 +8675,16 @@
         <v>84</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>83</v>
@@ -8756,7 +8733,7 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -8777,10 +8754,10 @@
         <v>83</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>83</v>
@@ -8791,13 +8768,13 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>83</v>
@@ -8819,19 +8796,19 @@
         <v>95</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>83</v>
@@ -8880,7 +8857,7 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -8901,10 +8878,10 @@
         <v>83</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>83</v>
@@ -8915,10 +8892,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8941,13 +8918,13 @@
         <v>83</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8998,7 +8975,7 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9022,7 +8999,7 @@
         <v>83</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>83</v>
@@ -9033,10 +9010,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9065,7 +9042,7 @@
         <v>141</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>143</v>
@@ -9118,7 +9095,7 @@
         <v>83</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -9142,7 +9119,7 @@
         <v>83</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>83</v>
@@ -9153,14 +9130,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9182,10 +9159,10 @@
         <v>140</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N60" t="s" s="2">
         <v>143</v>
@@ -9240,7 +9217,7 @@
         <v>83</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9275,10 +9252,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9304,13 +9281,13 @@
         <v>192</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>206</v>
@@ -9323,7 +9300,7 @@
         <v>83</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>83</v>
+        <v>487</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>83</v>
@@ -9338,13 +9315,13 @@
         <v>83</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>83</v>
@@ -9362,7 +9339,7 @@
         <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>94</v>
@@ -9380,16 +9357,16 @@
         <v>83</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>83</v>
@@ -9397,10 +9374,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9408,7 +9385,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>94</v>
@@ -9420,19 +9397,23 @@
         <v>83</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>289</v>
+        <v>489</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>290</v>
+        <v>470</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>83</v>
       </c>
@@ -9468,19 +9449,17 @@
         <v>83</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="AC62" s="2"/>
       <c r="AD62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>83</v>
+        <v>490</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>292</v>
+        <v>469</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -9492,67 +9471,71 @@
         <v>83</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>83</v>
+        <v>472</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>83</v>
+        <v>282</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>83</v>
+        <v>284</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="C63" s="2"/>
+        <v>469</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>492</v>
+      </c>
       <c r="D63" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>140</v>
+        <v>489</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>141</v>
+        <v>470</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>83</v>
       </c>
@@ -9588,57 +9571,57 @@
         <v>83</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>297</v>
+        <v>83</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>298</v>
+        <v>83</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>278</v>
+        <v>83</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>299</v>
+        <v>469</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>83</v>
+        <v>472</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>83</v>
+        <v>282</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>83</v>
+        <v>284</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9658,22 +9641,22 @@
         <v>83</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>302</v>
+        <v>192</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>303</v>
+        <v>474</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>304</v>
+        <v>475</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>305</v>
+        <v>476</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>83</v>
@@ -9683,7 +9666,7 @@
         <v>83</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>492</v>
+        <v>83</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>83</v>
@@ -9698,13 +9681,13 @@
         <v>83</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>83</v>
+        <v>325</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>83</v>
+        <v>326</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>83</v>
+        <v>327</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>83</v>
@@ -9722,16 +9705,16 @@
         <v>83</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>307</v>
+        <v>473</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>83</v>
+        <v>328</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>106</v>
@@ -9743,10 +9726,10 @@
         <v>83</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>308</v>
+        <v>137</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>83</v>
@@ -9757,21 +9740,21 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>83</v>
+        <v>331</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>83</v>
@@ -9780,22 +9763,22 @@
         <v>83</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>289</v>
+        <v>192</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>83</v>
@@ -9820,13 +9803,13 @@
         <v>83</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>83</v>
+        <v>325</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>83</v>
+        <v>336</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>83</v>
+        <v>337</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>83</v>
@@ -9844,13 +9827,13 @@
         <v>83</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>316</v>
+        <v>477</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>83</v>
@@ -9862,19 +9845,19 @@
         <v>83</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>83</v>
+        <v>338</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>83</v>
+        <v>341</v>
       </c>
     </row>
     <row r="66" hidden="true">
@@ -9882,7 +9865,7 @@
         <v>495</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9890,10 +9873,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>83</v>
@@ -9902,22 +9885,22 @@
         <v>83</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>496</v>
+        <v>84</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>274</v>
+        <v>480</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>470</v>
+        <v>391</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>276</v>
+        <v>392</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>83</v>
@@ -9954,23 +9937,25 @@
         <v>83</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AC66" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD66" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>497</v>
+        <v>83</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>83</v>
@@ -9982,43 +9967,43 @@
         <v>83</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>471</v>
+        <v>83</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>281</v>
+        <v>394</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>282</v>
+        <v>395</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>283</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D67" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>94</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>83</v>
@@ -10027,19 +10012,19 @@
         <v>95</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>496</v>
+        <v>388</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>274</v>
+        <v>455</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>276</v>
+        <v>457</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>83</v>
@@ -10088,13 +10073,13 @@
         <v>83</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>83</v>
@@ -10106,27 +10091,27 @@
         <v>83</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>471</v>
+        <v>83</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>281</v>
+        <v>459</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>282</v>
+        <v>460</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>283</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10149,20 +10134,16 @@
         <v>83</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>192</v>
+        <v>290</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>473</v>
+        <v>291</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>83</v>
       </c>
@@ -10186,13 +10167,13 @@
         <v>83</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>324</v>
+        <v>83</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>325</v>
+        <v>83</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>326</v>
+        <v>83</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>83</v>
@@ -10210,7 +10191,7 @@
         <v>83</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>472</v>
+        <v>293</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
@@ -10219,10 +10200,10 @@
         <v>94</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>327</v>
+        <v>83</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>83</v>
@@ -10231,10 +10212,10 @@
         <v>83</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>83</v>
@@ -10245,14 +10226,14 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>330</v>
+        <v>139</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10271,20 +10252,18 @@
         <v>83</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>331</v>
+        <v>141</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>83</v>
       </c>
@@ -10308,13 +10287,13 @@
         <v>83</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>324</v>
+        <v>83</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>335</v>
+        <v>83</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>336</v>
+        <v>83</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>83</v>
@@ -10332,7 +10311,7 @@
         <v>83</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>476</v>
+        <v>300</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
@@ -10344,37 +10323,37 @@
         <v>83</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>337</v>
+        <v>83</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>338</v>
+        <v>83</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>339</v>
+        <v>294</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>340</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>83</v>
+        <v>399</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10387,25 +10366,25 @@
         <v>83</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>478</v>
+        <v>400</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>479</v>
+        <v>401</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>390</v>
+        <v>143</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>391</v>
+        <v>149</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>83</v>
@@ -10454,7 +10433,7 @@
         <v>83</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>477</v>
+        <v>402</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
@@ -10466,7 +10445,7 @@
         <v>83</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>83</v>
@@ -10475,10 +10454,10 @@
         <v>83</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>393</v>
+        <v>83</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>394</v>
+        <v>137</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>83</v>
@@ -10489,20 +10468,18 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="C71" t="s" s="2">
-        <v>504</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>94</v>
@@ -10517,19 +10494,19 @@
         <v>95</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>387</v>
+        <v>192</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>456</v>
+        <v>206</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>83</v>
@@ -10539,7 +10516,7 @@
         <v>83</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>83</v>
+        <v>502</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>83</v>
@@ -10554,13 +10531,13 @@
         <v>83</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>83</v>
+        <v>208</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>83</v>
+        <v>209</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>83</v>
+        <v>210</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>83</v>
@@ -10578,13 +10555,13 @@
         <v>83</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>83</v>
@@ -10596,16 +10573,16 @@
         <v>83</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>83</v>
+        <v>468</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>458</v>
+        <v>213</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>459</v>
+        <v>214</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="AP71" t="s" s="2">
         <v>83</v>
@@ -10613,10 +10590,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10624,7 +10601,7 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>94</v>
@@ -10636,19 +10613,23 @@
         <v>83</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>289</v>
+        <v>489</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>290</v>
+        <v>470</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>83</v>
       </c>
@@ -10684,19 +10665,17 @@
         <v>83</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="AC72" s="2"/>
       <c r="AD72" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>83</v>
+        <v>490</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>292</v>
+        <v>469</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
@@ -10708,67 +10687,71 @@
         <v>83</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>83</v>
+        <v>472</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>83</v>
+        <v>282</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>83</v>
+        <v>284</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="C73" s="2"/>
+        <v>469</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>492</v>
+      </c>
       <c r="D73" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>140</v>
+        <v>489</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>141</v>
+        <v>470</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O73" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>83</v>
       </c>
@@ -10816,80 +10799,80 @@
         <v>83</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>299</v>
+        <v>469</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>83</v>
+        <v>472</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>83</v>
+        <v>282</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>83</v>
+        <v>284</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>398</v>
+        <v>83</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>399</v>
+        <v>474</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>143</v>
+        <v>476</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>149</v>
+        <v>324</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>83</v>
@@ -10914,13 +10897,13 @@
         <v>83</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>83</v>
+        <v>325</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>83</v>
+        <v>326</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>83</v>
+        <v>327</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>83</v>
@@ -10938,19 +10921,19 @@
         <v>83</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>401</v>
+        <v>473</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>83</v>
+        <v>328</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>83</v>
@@ -10959,10 +10942,10 @@
         <v>83</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>137</v>
+        <v>329</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>83</v>
@@ -10973,21 +10956,21 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>83</v>
+        <v>331</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>83</v>
@@ -10996,22 +10979,22 @@
         <v>83</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>192</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>464</v>
+        <v>332</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>465</v>
+        <v>333</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>466</v>
+        <v>334</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>206</v>
+        <v>335</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>83</v>
@@ -11036,13 +11019,13 @@
         <v>83</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>207</v>
+        <v>325</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>208</v>
+        <v>336</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>209</v>
+        <v>337</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>83</v>
@@ -11060,13 +11043,13 @@
         <v>83</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>83</v>
@@ -11078,27 +11061,27 @@
         <v>83</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>467</v>
+        <v>338</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>212</v>
+        <v>339</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>213</v>
+        <v>340</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>214</v>
+        <v>83</v>
       </c>
       <c r="AP75" t="s" s="2">
-        <v>83</v>
+        <v>341</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11109,7 +11092,7 @@
         <v>81</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>83</v>
@@ -11121,16 +11104,20 @@
         <v>83</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>289</v>
+        <v>84</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>290</v>
+        <v>479</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
+        <v>480</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>83</v>
       </c>
@@ -11178,19 +11165,19 @@
         <v>83</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>292</v>
+        <v>478</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>83</v>
@@ -11199,994 +11186,20 @@
         <v>83</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>83</v>
+        <v>394</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>293</v>
+        <v>395</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O77" s="2"/>
-      <c r="P77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP77" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="P78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q78" s="2"/>
-      <c r="R78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP78" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="P79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AO79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP79" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="P80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AC80" s="2"/>
-      <c r="AD80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP80" t="s" s="2">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="C81" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="D81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="P81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q81" s="2"/>
-      <c r="R81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AO81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP81" t="s" s="2">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="P82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP82" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="P83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP83" t="s" s="2">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="P84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AO84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP84" t="s" s="2">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP84">
+  <autoFilter ref="A1:AP76">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12196,7 +11209,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI83">
+  <conditionalFormatting sqref="A2:AI75">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T06:04:07+00:00</t>
+    <t>2025-11-09T07:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T07:15:59+00:00</t>
+    <t>2025-11-09T10:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T10:56:11+00:00</t>
+    <t>2025-11-09T12:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:21:17+00:00</t>
+    <t>2025-11-09T12:30:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:30:11+00:00</t>
+    <t>2025-11-12T06:38:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:38:24+00:00</t>
+    <t>2025-11-12T06:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:39:32+00:00</t>
+    <t>2025-11-12T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T08:01:17+00:00</t>
+    <t>2025-11-13T05:16:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:16:01+00:00</t>
+    <t>2025-11-13T05:42:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:42:41+00:00</t>
+    <t>2025-11-13T06:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:09:51+00:00</t>
+    <t>2025-11-13T06:07:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:07:07+00:00</t>
+    <t>2025-11-14T06:33:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T06:33:14+00:00</t>
+    <t>2025-11-16T14:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-blood-pressure.xlsx
+++ b/StructureDefinition-rs-observation-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-16T14:11:53+00:00</t>
+    <t>2025-11-16T14:40:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
